--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AB/15/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.287700000000004</v>
+        <v>6.296300000000006</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5523</v>
+        <v>-21.5677</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.932499999999996</v>
+        <v>6.898399999999998</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>3.912400000000005</v>
+        <v>3.903600000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.83519999999999</v>
+        <v>-21.72609999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.531400000000004</v>
+        <v>5.653700000000004</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.2476</v>
+        <v>-21.28640000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.262600000000004</v>
+        <v>9.343400000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.152</v>
+        <v>-19.9758</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.068999999999999</v>
+        <v>8.864600000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.47189999999999</v>
+        <v>-19.4298</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.631299999999999</v>
+        <v>7.184500000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.5215</v>
+        <v>-21.5711</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.101000000000002</v>
+        <v>5.244400000000002</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.65969999999998</v>
+        <v>-21.68129999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.42610000000001</v>
+        <v>-22.4205</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.177</v>
+        <v>-22.05919999999999</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.915699999999998</v>
+        <v>4.845999999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.45849999999998</v>
+        <v>-21.44239999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.60459999999998</v>
+        <v>-21.58419999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.97660000000002</v>
+        <v>-22.04060000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.529999999999998</v>
+        <v>6.707600000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.66159999999999</v>
+        <v>-21.67679999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.420400000000002</v>
+        <v>5.317400000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.9974</v>
+        <v>-21.9531</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.3866</v>
+        <v>-21.3913</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.4111</v>
+        <v>-21.3123</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.11399999999998</v>
+        <v>-20.03759999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.195399999999996</v>
+        <v>5.036299999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.229200000000001</v>
+        <v>8.390700000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
